--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/newworld/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/newworld/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7360" yWindow="3020" windowWidth="24600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -894,7 +897,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="3020" windowWidth="24600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="37340" windowHeight="21140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="功能按钮" sheetId="1" r:id="rId1"/>
+    <sheet name="map" sheetId="3" r:id="rId2"/>
+    <sheet name="Items" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
@@ -443,6 +444,29 @@
   <si>
     <t>0|0|50;1|101</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connections</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cellList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|5|4|3|2|4|3|2|0|0|5|0|4|4|5|1|3|2|4|5|0|0|0|3|3|5|4|3|1|2|3|3|1|4|0|3|3|3|2|1|1|0|1|5|5|1|4|3|3|2|0|0|1|4|0|1|3|1|4|3|4|3|4|4|4|2|3|5|5|2|1|0|5|5|2|2|0|1|0|1|0|1|1|3|5|4|3|1|5|0|5|0|1|1|3|3|3|3|4|4</t>
   </si>
 </sst>
 </file>
@@ -894,9 +918,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>

--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="37340" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="860" yWindow="2620" windowWidth="37340" windowHeight="21140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能按钮" sheetId="1" r:id="rId1"/>
     <sheet name="map" sheetId="3" r:id="rId2"/>
-    <sheet name="Items" sheetId="2" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId3"/>
+    <sheet name="Items" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="161">
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
@@ -126,10 +127,6 @@
   </si>
   <si>
     <t>SellPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,6 +464,806 @@
   </si>
   <si>
     <t>5|5|4|3|2|4|3|2|0|0|5|0|4|4|5|1|3|2|4|5|0|0|0|3|3|5|4|3|1|2|3|3|1|4|0|3|3|3|2|1|1|0|1|5|5|1|4|3|3|2|0|0|1|4|0|1|3|1|4|3|4|3|4|4|4|2|3|5|5|2|1|0|5|5|2|2|0|1|0|1|0|1|1|3|5|4|3|1|5|0|5|0|1|1|3|3|3|3|4|4</t>
+  </si>
+  <si>
+    <t>地图元素类型</t>
+    <rPh sb="0" eb="1">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'su</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <rPh sb="0" eb="1">
+      <t>jian'zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山石</t>
+    <rPh sb="0" eb="1">
+      <t>shan'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物</t>
+    <rPh sb="0" eb="1">
+      <t>dong'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类</t>
+    <rPh sb="0" eb="1">
+      <t>ren'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可交互</t>
+    <rPh sb="0" eb="1">
+      <t>bu'ke</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可交互</t>
+    <rPh sb="0" eb="1">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jiao'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒿子秆</t>
+    <rPh sb="0" eb="1">
+      <t>hao'zi'gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪石</t>
+    <rPh sb="0" eb="1">
+      <t>guai'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <rPh sb="0" eb="1">
+      <t>tu'pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片id</t>
+    <rPh sb="0" eb="1">
+      <t>tu'pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品id</t>
+    <rPh sb="0" eb="1">
+      <t>wu'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npcId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图元素表</t>
+    <rPh sb="0" eb="1">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互表</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得物品</t>
+    <rPh sb="0" eb="1">
+      <t>huo'de</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可交互非npc</t>
+    <rPh sb="0" eb="1">
+      <t>ke'jiao'hu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可交互npc</t>
+    <rPh sb="0" eb="1">
+      <t>ke'jiao'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <rPh sb="0" eb="1">
+      <t>miao'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <rPh sb="0" eb="1">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片id|交互id</t>
+    <rPh sb="0" eb="1">
+      <t>tu'pian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发怪物</t>
+    <rPh sb="0" eb="1">
+      <t>chu'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guai'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发选择</t>
+    <rPh sb="0" eb="1">
+      <t>chu'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择id</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本内容</t>
+    <rPh sb="0" eb="1">
+      <t>wen'ben</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei'ro</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc表</t>
+    <rPh sb="3" eb="4">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelInc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <rPh sb="0" eb="1">
+      <t>deng'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级成长</t>
+    <rPh sb="0" eb="1">
+      <t>deng'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <rPh sb="0" eb="1">
+      <t>xing'bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话列表</t>
+    <rPh sb="0" eb="1">
+      <t>dui'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc记录</t>
+    <rPh sb="3" eb="4">
+      <t>ji'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成对话</t>
+    <rPh sb="0" eb="1">
+      <t>yi'wan'cheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dui'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感度</t>
+    <rPh sb="0" eb="1">
+      <t>hao'gan'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物模板</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu'ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功法列表</t>
+    <rPh sb="0" eb="1">
+      <t>gong'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友</t>
+    <rPh sb="0" eb="1">
+      <t>hao'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道侣</t>
+    <rPh sb="0" eb="1">
+      <t>dao'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仇敌</t>
+    <rPh sb="0" eb="1">
+      <t>chou'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民居</t>
+    <rPh sb="0" eb="1">
+      <t>min'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小野猫</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'ye'mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农夫</t>
+    <rPh sb="0" eb="1">
+      <t>nong'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpinc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpinc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkinc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茯苓</t>
+    <rPh sb="0" eb="1">
+      <t>fu'ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行水之功多，益心脾不可阙也。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石洞</t>
+    <rPh sb="0" eb="1">
+      <t>shi'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择表</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答</t>
+    <rPh sb="0" eb="1">
+      <t>hui'da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励</t>
+    <rPh sb="0" eb="1">
+      <t>jiang'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你发现了一个山洞，里面有窸窸窣窣的声音。</t>
+    <rPh sb="0" eb="1">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fa'xian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shan'dong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>li'mian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>you</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xi'xi'su'su</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>d</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>sheng'yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进去|不进去</t>
+    <rPh sb="0" eb="1">
+      <t>jin'qu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu'jin'qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞出了几只蝙蝠，你搜索了一番。|</t>
+    <rPh sb="3" eb="4">
+      <t>ji'zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bian'fu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sou'suo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>l</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi'fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item|1|1;cash,2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寺庙</t>
+    <rPh sb="0" eb="1">
+      <t>si'miao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能表</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc模板表</t>
+    <rPh sb="3" eb="4">
+      <t>mu'ban</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心法</t>
+    <rPh sb="0" eb="1">
+      <t>xin'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <rPh sb="0" eb="1">
+      <t>fang'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000|一个疯和尚不由分说朝你杀来。</t>
+    <rPh sb="6" eb="7">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>feng'he'shang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu'you'fen'sh</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>chao'ni</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>sha'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npcid|描述</t>
+    <rPh sb="6" eb="7">
+      <t>miao'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貔貅</t>
+    <rPh sb="0" eb="1">
+      <t>pi'xiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫霞功</t>
+    <rPh sb="0" eb="1">
+      <t>zi'xia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫霞指</t>
+    <rPh sb="0" eb="1">
+      <t>zi'xia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件文本</t>
+    <rPh sb="0" eb="1">
+      <t>tiao'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件文本表</t>
+    <rPh sb="0" eb="1">
+      <t>tiao'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen'ben</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某心法等级</t>
+    <rPh sb="0" eb="1">
+      <t>mou</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xin'fa</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>deng'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上古神兽貔貅，朝你翻了个白眼，看不上你。|上古神兽决定跟你修仙。</t>
+    <rPh sb="21" eb="22">
+      <t>shang'gu'shen'shou</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>jue'ding</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>gen'ni</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>xiu'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星云法师</t>
+    <rPh sb="0" eb="1">
+      <t>xing'yun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话表</t>
+    <rPh sb="0" eb="1">
+      <t>dui'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敢问大师法号？|大师给我算一卦。</t>
+    <rPh sb="8" eb="9">
+      <t>da'shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>suan'yi'gua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贫僧法号星云。|天机不可泄露。</t>
+    <rPh sb="0" eb="1">
+      <t>pin'seng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa'hao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing'yun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tian'ji'bu'ke'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫霞神功，威力无穷</t>
+    <rPh sb="0" eb="1">
+      <t>zi'xia'shen'gong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei'li'wu'qiong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一指出，万人屠。</t>
+    <rPh sb="4" eb="5">
+      <t>wan'ren'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -510,10 +1307,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,7 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
@@ -931,19 +1734,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -960,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -971,10 +1774,899 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="1">
+        <f>A3+99</f>
+        <v>1099</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1">
+        <f>A3+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="E3" s="1">
+        <f>B3+1000</f>
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <f>A3+100</f>
+        <v>1100</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B6" si="0">A4+99</f>
+        <v>1199</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D7" si="1">A4+1000</f>
+        <v>2100</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E7" si="2">B4+1000</f>
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <f t="shared" ref="A5:A7" si="3">A4+100</f>
+        <v>1200</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>1299</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="2"/>
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <f t="shared" si="3"/>
+        <v>1300</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>1399</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>2300</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>4</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" t="s">
+        <v>80</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>141</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>129</v>
+      </c>
+      <c r="V12" t="s">
+        <v>130</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <f t="shared" ref="A13:A15" si="4">A12+100</f>
+        <v>1200</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <f t="shared" si="4"/>
+        <v>1300</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14" s="1"/>
+      <c r="I14"/>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1">
+        <v>3</v>
+      </c>
+      <c r="O14" s="1">
+        <v>3</v>
+      </c>
+      <c r="P14" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <f t="shared" si="4"/>
+        <v>1400</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15" s="1"/>
+      <c r="I15"/>
+      <c r="K15" s="1"/>
+      <c r="T15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16" s="1"/>
+      <c r="I16"/>
+      <c r="K16" s="1"/>
+      <c r="T16" t="s">
+        <v>51</v>
+      </c>
+      <c r="U16" t="s">
+        <v>70</v>
+      </c>
+      <c r="V16" t="s">
+        <v>147</v>
+      </c>
+      <c r="W16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>2100</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17" s="1"/>
+      <c r="I17"/>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
+        <v>155</v>
+      </c>
+      <c r="W17" t="s">
+        <v>149</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>2200</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18" s="1"/>
+      <c r="I18"/>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>2300</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19" s="1"/>
+      <c r="I19"/>
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>2400</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" s="1"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="G21"/>
+      <c r="H21" s="1"/>
+      <c r="I21"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="G25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="G26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S26" t="s">
+        <v>51</v>
+      </c>
+      <c r="T26" t="s">
+        <v>112</v>
+      </c>
+      <c r="U26" t="s">
+        <v>113</v>
+      </c>
+      <c r="V26" t="s">
+        <v>114</v>
+      </c>
+      <c r="W26" t="s">
+        <v>115</v>
+      </c>
+      <c r="X26" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="G27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="G28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O28" s="1">
+        <v>2</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>100</v>
+      </c>
+      <c r="U28">
+        <v>100</v>
+      </c>
+      <c r="V28">
+        <v>100</v>
+      </c>
+      <c r="W28">
+        <v>100</v>
+      </c>
+      <c r="X28">
+        <v>100</v>
+      </c>
+      <c r="Y28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="G29" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H29" s="1">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>2</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:27" x14ac:dyDescent="0.15">
+      <c r="G33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" t="s">
+        <v>98</v>
+      </c>
+      <c r="S33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="7:27" x14ac:dyDescent="0.15">
+      <c r="H34" t="s">
+        <v>99</v>
+      </c>
+      <c r="S34" t="s">
+        <v>51</v>
+      </c>
+      <c r="T34" t="s">
+        <v>65</v>
+      </c>
+      <c r="U34" t="s">
+        <v>128</v>
+      </c>
+      <c r="V34" t="s">
+        <v>70</v>
+      </c>
+      <c r="W34" t="s">
+        <v>159</v>
+      </c>
+      <c r="X34" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="7:27" x14ac:dyDescent="0.15">
+      <c r="S35" s="1">
+        <v>1</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U35" t="s">
+        <v>157</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="7:27" x14ac:dyDescent="0.15">
+      <c r="S36" s="1">
+        <v>2</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U36" t="s">
+        <v>158</v>
+      </c>
+      <c r="V36" s="1">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>10000</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="7:27" x14ac:dyDescent="0.15">
+      <c r="Z37">
+        <v>2</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="7:27" x14ac:dyDescent="0.15">
+      <c r="S40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="7:27" x14ac:dyDescent="0.15">
+      <c r="S41" t="s">
+        <v>51</v>
+      </c>
+      <c r="T41" t="s">
+        <v>152</v>
+      </c>
+      <c r="U41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="7:27" x14ac:dyDescent="0.15">
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s">
+        <v>153</v>
+      </c>
+      <c r="U42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1005,34 +2697,34 @@
         <v>19</v>
       </c>
       <c r="I1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" t="s">
         <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
       </c>
       <c r="M1">
         <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O1">
         <v>0</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q1">
         <v>0</v>
       </c>
       <c r="R1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S1">
         <v>100</v>
       </c>
       <c r="T1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
@@ -1040,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1049,7 +2741,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1061,31 +2753,31 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S2">
         <v>101</v>
       </c>
       <c r="T2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
@@ -1093,7 +2785,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1102,7 +2794,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1114,25 +2806,25 @@
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3">
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
@@ -1140,7 +2832,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1149,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>99</v>
@@ -1161,39 +2853,63 @@
         <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O4">
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4">
         <v>3</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5">
+        <v>99</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
       <c r="O5">
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q5">
         <v>4</v>
       </c>
       <c r="R5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -1201,13 +2917,13 @@
         <v>5</v>
       </c>
       <c r="P6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q6">
         <v>5</v>
       </c>
       <c r="R6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
@@ -1215,7 +2931,7 @@
         <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
@@ -1223,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
@@ -1231,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="2620" windowWidth="37340" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="80" yWindow="2640" windowWidth="37340" windowHeight="21140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能按钮" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="162">
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
@@ -1263,6 +1263,10 @@
   </si>
   <si>
     <t>effectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1776,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2359,7 +2363,7 @@
         <v>90</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>96</v>

--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/newworld/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/newworld/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="2640" windowWidth="37340" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="功能按钮" sheetId="1" r:id="rId1"/>
     <sheet name="map" sheetId="3" r:id="rId2"/>
     <sheet name="工作表1" sheetId="4" r:id="rId3"/>
-    <sheet name="Items" sheetId="2" r:id="rId4"/>
+    <sheet name="计划任务表" sheetId="5" r:id="rId4"/>
+    <sheet name="Items" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="208">
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
@@ -1267,6 +1265,436 @@
   </si>
   <si>
     <t>dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1表示可同时存在</t>
+    <rPh sb="1" eb="2">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tong'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cun'zai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友功能</t>
+    <rPh sb="0" eb="1">
+      <t>hao'you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主功能</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子功能</t>
+    <rPh sb="0" eb="1">
+      <t>zi'xi'tong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物功能</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收服宠物</t>
+    <rPh sb="0" eb="1">
+      <t>shou'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chong'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物成长</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物忠诚度</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong'cheng'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑乘</t>
+    <rPh sb="0" eb="1">
+      <t>qi'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请下副本</t>
+    <rPh sb="0" eb="1">
+      <t>yao'qing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xia'fu'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教派</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'pai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教派、师徒</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'pai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建教派</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'pai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入教派</t>
+    <rPh sb="0" eb="1">
+      <t>jia'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'pai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请入派</t>
+    <rPh sb="0" eb="1">
+      <t>yao'qing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ru'pai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教派成长</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'pai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收徒</t>
+    <rPh sb="0" eb="1">
+      <t>shou'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜师</t>
+    <rPh sb="0" eb="1">
+      <t>bai'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叛教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追杀系统</t>
+    <rPh sb="0" eb="1">
+      <t>zhui'sha</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xi'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叛教追杀</t>
+    <rPh sb="0" eb="1">
+      <t>pan'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhui'sha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仇杀</t>
+    <rPh sb="0" eb="1">
+      <t>chou'sha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出师/另立门户</t>
+    <rPh sb="0" eb="1">
+      <t>chu'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ling'li'men'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派仓库/贡献</t>
+    <rPh sb="0" eb="1">
+      <t>bang'pai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cang'ku</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视角移动</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发事件</t>
+    <rPh sb="0" eb="1">
+      <t>chu'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行走-位置移动</t>
+    <rPh sb="0" eb="1">
+      <t>xing'zou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <rPh sb="0" eb="1">
+      <t>yi'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <rPh sb="0" eb="1">
+      <t>ong'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加状态</t>
+    <rPh sb="0" eb="1">
+      <t>tian'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang't</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用物品</t>
+    <rPh sb="0" eb="1">
+      <t>shi'yogn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断结束</t>
+    <rPh sb="0" eb="1">
+      <t>pan'duan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算奖励</t>
+    <rPh sb="0" eb="1">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiang'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收服</t>
+    <rPh sb="0" eb="1">
+      <t>shou'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界地图</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换地图</t>
+    <rPh sb="0" eb="1">
+      <t>qie'huan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启地图</t>
+    <rPh sb="0" eb="1">
+      <t>kai'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞府</t>
+    <rPh sb="0" eb="1">
+      <t>dong'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启洞府</t>
+    <rPh sb="0" eb="1">
+      <t>kai'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dong'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞府建造</t>
+    <rPh sb="0" eb="1">
+      <t>dong'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'zao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞府守护</t>
+    <rPh sb="0" eb="1">
+      <t>dong'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞府传送阵</t>
+    <rPh sb="0" eb="1">
+      <t>dong'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chuan'song'zhen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送阵/令</t>
+    <rPh sb="0" eb="1">
+      <t>chuan'song'zhen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮会驻地</t>
+    <rPh sb="0" eb="1">
+      <t>bang'hi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu'di</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1311,7 +1739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1321,6 +1749,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1599,15 +2030,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1626,8 +2063,14 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1644,7 +2087,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1659,7 +2102,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1676,7 +2119,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1691,7 +2134,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1704,7 +2147,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1715,6 +2158,24 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1780,7 +2241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -1798,14 +2259,14 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
@@ -2667,6 +3128,235 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/newworld/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/newworld/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-34820" yWindow="600" windowWidth="35040" windowHeight="21140" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="功能按钮" sheetId="1" r:id="rId1"/>
     <sheet name="map" sheetId="3" r:id="rId2"/>
     <sheet name="工作表1" sheetId="4" r:id="rId3"/>
     <sheet name="计划任务表" sheetId="5" r:id="rId4"/>
-    <sheet name="Items" sheetId="2" r:id="rId5"/>
+    <sheet name="备注表" sheetId="6" r:id="rId5"/>
+    <sheet name="Items" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="254">
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
@@ -1694,6 +1698,565 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>zhu'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品/背包</t>
+    <rPh sb="0" eb="1">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bei'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <rPh sb="0" eb="1">
+      <t>bei'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色面板</t>
+    <rPh sb="0" eb="1">
+      <t>jue'se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mian'ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿戴装备</t>
+    <rPh sb="0" eb="1">
+      <t>chuan'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用物品</t>
+    <rPh sb="0" eb="1">
+      <t>shi'yong'wu'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吟唱/打断/CD</t>
+    <rPh sb="0" eb="1">
+      <t>yin'chang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离/施法距离</t>
+    <rPh sb="0" eb="1">
+      <t>ju'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ju'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方AI</t>
+    <rPh sb="0" eb="1">
+      <t>di'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友/仇敌</t>
+    <rPh sb="0" eb="1">
+      <t>hao'you</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chou'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗属性及成长值</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'dou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'xign</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng'zhang'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理能力</t>
+    <rPh sb="0" eb="1">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>neng'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教派/职位</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'pai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名号</t>
+    <rPh sb="0" eb="1">
+      <t>ming'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟性</t>
+    <rPh sb="0" eb="1">
+      <t>wu'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统御</t>
+    <rPh sb="0" eb="1">
+      <t>tong'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定npc修炼速度</t>
+    <rPh sb="0" eb="1">
+      <t>jue'ding</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiu'lian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>su'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵根</t>
+    <rPh sb="0" eb="1">
+      <t>ling'gen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定npc学习新技能速度</t>
+    <rPh sb="0" eb="1">
+      <t>jue'ding</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xue'xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>su'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定管理能力</t>
+    <rPh sb="0" eb="1">
+      <t>jue'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>neng'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定标准速度</t>
+    <rPh sb="0" eb="1">
+      <t>she'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao'zhun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>su'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始修为</t>
+    <rPh sb="0" eb="1">
+      <t>chu'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiu'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修炼地</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'lian'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭关</t>
+    <rPh sb="0" eb="1">
+      <t>bi'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵气</t>
+    <rPh sb="0" eb="1">
+      <t>ling'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望气术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天眼通</t>
+    <rPh sb="0" eb="1">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同的修炼地修炼速度不同，灵气上限有限制</t>
+    <rPh sb="13" eb="14">
+      <t>ling'qi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shang'xian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>you</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xian'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长闭关时间</t>
+    <rPh sb="0" eb="1">
+      <t>zui'chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bi'guan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辟谷术</t>
+    <rPh sb="0" eb="1">
+      <t>bi'gu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副职业</t>
+    <rPh sb="0" eb="1">
+      <t>fu'zhi'ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼丹师</t>
+    <rPh sb="0" eb="1">
+      <t>lian'dan'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵宝师</t>
+    <rPh sb="0" eb="1">
+      <t>ling'bao'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界地图切分区域</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qie'fen'qu'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域内固定地图</t>
+    <rPh sb="0" eb="1">
+      <t>qu'yu'nei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gu'ding</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定NPC/传送阵/固定出口*4</t>
+    <rPh sb="0" eb="1">
+      <t>gu'ding</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chuan'song</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gu'ding</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chu'kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域内随机地图</t>
+    <rPh sb="0" eb="1">
+      <t>qu'yu'nei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机NPC/随机洞府/随机出口/一次性传送阵</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dong'fu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chu'kou</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yi'ci'xing</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>chuan'song'zhen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图分等级</t>
+    <rPh sb="0" eb="1">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>deng'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级-世界地图</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级-区域地图*36，按照分块划分</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qu'yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>an'zhao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fen'kuai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>hua'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机区域可以探索到固定区域的入口</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu'yu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tan'suo'dao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gu'ding</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qu'yu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>d</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ru'kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩小地图大小（64*64）</t>
+    <rPh sb="0" eb="1">
+      <t>suo'xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人的格子可以路过，点击有人的格子会走到这个格子上（主角和npc的位置有偏移，左下、右上）</t>
+    <rPh sb="0" eb="1">
+      <t>you'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ge'zi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lu'guo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you'ren</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>d</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ge'zi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zou'dao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zhe'ge</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ge'zi'shagn</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zhu'jue</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>he</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>d</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>you</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>pian'yi</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zuo'xia</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>you'shanng</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3128,19 +3691,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>165</v>
       </c>
@@ -3148,68 +3714,127 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>164</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="J2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="J3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F11" t="s">
+        <v>222</v>
+      </c>
+      <c r="G11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>182</v>
       </c>
@@ -3217,7 +3842,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>184</v>
       </c>
@@ -3347,6 +3972,81 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>230</v>
+      </c>
+      <c r="B53" t="s">
+        <v>232</v>
+      </c>
+      <c r="C53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>239</v>
+      </c>
+      <c r="B56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3356,6 +4056,81 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>

--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34820" yWindow="600" windowWidth="35040" windowHeight="21140" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-37340" yWindow="460" windowWidth="37340" windowHeight="21140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能按钮" sheetId="1" r:id="rId1"/>
     <sheet name="map" sheetId="3" r:id="rId2"/>
-    <sheet name="工作表1" sheetId="4" r:id="rId3"/>
-    <sheet name="计划任务表" sheetId="5" r:id="rId4"/>
-    <sheet name="备注表" sheetId="6" r:id="rId5"/>
-    <sheet name="Items" sheetId="2" r:id="rId6"/>
+    <sheet name="地理位置表" sheetId="7" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
+    <sheet name="计划任务表" sheetId="5" r:id="rId5"/>
+    <sheet name="备注表" sheetId="6" r:id="rId6"/>
+    <sheet name="Items" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="317">
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
@@ -2257,6 +2258,732 @@
     </rPh>
     <rPh sb="42" eb="43">
       <t>you'shanng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠</t>
+    <rPh sb="0" eb="1">
+      <t>sha'mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜花</t>
+    <rPh sb="0" eb="1">
+      <t>xian'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌木</t>
+    <rPh sb="0" eb="1">
+      <t>guan'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔木</t>
+    <rPh sb="0" eb="1">
+      <t>qiao'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈壁</t>
+    <rPh sb="0" eb="1">
+      <t>ge'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景背景种类</t>
+    <rPh sb="0" eb="1">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪地</t>
+    <rPh sb="0" eb="1">
+      <t>xue'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地</t>
+    <rPh sb="0" eb="1">
+      <t>tu'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿草地</t>
+    <rPh sb="0" eb="1">
+      <t>lv</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>cao'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枯草地</t>
+    <rPh sb="0" eb="1">
+      <t>ku'cao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼群</t>
+    <rPh sb="0" eb="1">
+      <t>yu'qun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙人掌</t>
+    <rPh sb="0" eb="1">
+      <t>xian'ren'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水下</t>
+    <rPh sb="0" eb="1">
+      <t>shui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙包</t>
+    <rPh sb="0" eb="1">
+      <t>sha'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊瑚</t>
+    <rPh sb="0" eb="1">
+      <t>shan'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山洞</t>
+    <rPh sb="0" eb="1">
+      <t>shan'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水洼</t>
+    <rPh sb="0" eb="1">
+      <t>shui'wa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石块</t>
+    <rPh sb="0" eb="1">
+      <t>shi'kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图类型</t>
+    <rPh sb="0" eb="1">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定地图</t>
+    <rPh sb="0" eb="1">
+      <t>gu'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取cellList</t>
+    <rPh sb="0" eb="1">
+      <t>du'qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋</t>
+    <rPh sb="0" eb="1">
+      <t>fang'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴</t>
+    <rPh sb="0" eb="1">
+      <t>dong'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cellList格式：n1|type1;n2|type2…空位不填</t>
+    <rPh sb="8" eb="9">
+      <t>ge'shi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>kong'wei</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bu'tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机地图</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ji'di'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山丘/海岛</t>
+    <rPh sb="0" eb="1">
+      <t>shan'qiu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hai'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先确定陆地、水域</t>
+    <rPh sb="0" eb="1">
+      <t>shou'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>que'ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lu'di</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shui'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废墟</t>
+    <rPh sb="0" eb="1">
+      <t>fei'xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得出地貌列表</t>
+    <rPh sb="0" eb="1">
+      <t>de'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'mao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lie'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成地貌</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得出npc列表</t>
+    <rPh sb="0" eb="1">
+      <t>de'chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lie'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药草</t>
+    <rPh sb="0" eb="1">
+      <t>yao'cao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个点都有灵气浓度</t>
+    <rPh sb="0" eb="1">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ge'dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ling'qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>nong'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匮乏</t>
+    <rPh sb="0" eb="1">
+      <t>kui'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀薄</t>
+    <rPh sb="0" eb="1">
+      <t>xi'bo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平淡</t>
+    <rPh sb="0" eb="1">
+      <t>ping'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浓郁</t>
+    <rPh sb="0" eb="1">
+      <t>nong'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰富</t>
+    <rPh sb="0" eb="1">
+      <t>feng'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密集</t>
+    <rPh sb="0" eb="1">
+      <t>mi'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据地理位置表确定地形</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'zhi'biao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>que'din</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成npc</t>
+    <rPh sb="0" eb="1">
+      <t>shegn'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成地貌</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'chegn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低层</t>
+    <rPh sb="0" eb="1">
+      <t>zui'di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ceng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中层</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'ceng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高层</t>
+    <rPh sb="0" eb="1">
+      <t>gao'ceng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家在最高层</t>
+    <rPh sb="0" eb="1">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zui'gao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ceng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大块地貌</t>
+    <rPh sb="0" eb="1">
+      <t>da'kuai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型地貌</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型地貌</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-500格子</t>
+    <rPh sb="6" eb="7">
+      <t>ge'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-10格子</t>
+    <rPh sb="4" eb="5">
+      <t>ge'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-50格子</t>
+    <rPh sb="5" eb="6">
+      <t>ge'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地貌类型</t>
+    <rPh sb="0" eb="1">
+      <t>di'mao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成规则</t>
+    <rPh sb="0" eb="1">
+      <t>shegn'chegn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gui'ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择初始点</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu'shi'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定地貌格子数</t>
+    <rPh sb="0" eb="1">
+      <t>que'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'mao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ge'zi'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定行</t>
+    <rPh sb="0" eb="1">
+      <t>que'din</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hang'lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行数介于1/4~3/4格子数随机，最小为1</t>
+    <rPh sb="0" eb="1">
+      <t>hang'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'yu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ge'zi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定列</t>
+    <rPh sb="0" eb="1">
+      <t>que'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列数=格子数/行数，且向两侧随机1/5格子，最小为0</t>
+    <rPh sb="0" eb="1">
+      <t>lie</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ge'zi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hang'shu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>liang'ce</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ge'zi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据地貌类型，随机1-总格子数/20，有的地貌多，有的地貌少</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'mao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lei'xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ge'zi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>you</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>d</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>di'mao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>you</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>d</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>di'mao</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始点从0,0开始，按概率触发地貌。存一个值，如果长时间不触发，值变大概率提高。如果右上方有地貌的，概率为0.</t>
+    <rPh sb="0" eb="1">
+      <t>chu'shi'dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kai'shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>an'gai'lv</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chu'fa</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>di'mao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>cun</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ru'guo</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>chang'shi'jian</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>bu'chu'fa</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>chu'fa</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>bian'da</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>gai'lv</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ru'guo</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>you'shang'fang</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>you</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>di'mao</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>d</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>gai'lv</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>wei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2302,7 +3029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2315,6 +3042,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2749,18 +3482,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.83203125" customWidth="1"/>
+    <col min="20" max="20" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -2777,7 +3513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2792,6 +3528,470 @@
       </c>
       <c r="E2" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="S7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>273</v>
+      </c>
+      <c r="T8" t="s">
+        <v>274</v>
+      </c>
+      <c r="U8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>279</v>
+      </c>
+      <c r="T9" t="s">
+        <v>281</v>
+      </c>
+      <c r="U9" t="s">
+        <v>294</v>
+      </c>
+      <c r="V9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>283</v>
+      </c>
+      <c r="U10" t="s">
+        <v>296</v>
+      </c>
+      <c r="V10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>285</v>
+      </c>
+      <c r="U11" t="s">
+        <v>295</v>
+      </c>
+      <c r="V11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="V12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="6">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="S17" t="s">
+        <v>307</v>
+      </c>
+      <c r="T17" t="s">
+        <v>301</v>
+      </c>
+      <c r="U17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="H18" t="s">
+        <v>287</v>
+      </c>
+      <c r="J18" t="s">
+        <v>288</v>
+      </c>
+      <c r="T18" t="s">
+        <v>302</v>
+      </c>
+      <c r="U18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="J19" t="s">
+        <v>289</v>
+      </c>
+      <c r="T19" t="s">
+        <v>303</v>
+      </c>
+      <c r="U19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="J20" t="s">
+        <v>290</v>
+      </c>
+      <c r="S20" t="s">
+        <v>308</v>
+      </c>
+      <c r="T20" t="s">
+        <v>309</v>
+      </c>
+      <c r="U20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" t="s">
+        <v>310</v>
+      </c>
+      <c r="U21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="J22" t="s">
+        <v>293</v>
+      </c>
+      <c r="T22" t="s">
+        <v>311</v>
+      </c>
+      <c r="U22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="J23" t="s">
+        <v>292</v>
+      </c>
+      <c r="T23" t="s">
+        <v>313</v>
+      </c>
+      <c r="U23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="8:21" x14ac:dyDescent="0.15">
+      <c r="J24" t="s">
+        <v>291</v>
+      </c>
+      <c r="T24" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2801,6 +4001,826 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CW101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="101" width="4.83203125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:101" x14ac:dyDescent="0.15">
+      <c r="B1" s="4">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>15</v>
+      </c>
+      <c r="R1" s="4">
+        <v>16</v>
+      </c>
+      <c r="S1" s="4">
+        <v>17</v>
+      </c>
+      <c r="T1" s="4">
+        <v>18</v>
+      </c>
+      <c r="U1" s="4">
+        <v>19</v>
+      </c>
+      <c r="V1" s="4">
+        <v>20</v>
+      </c>
+      <c r="W1" s="4">
+        <v>21</v>
+      </c>
+      <c r="X1" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="4">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="4">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="4">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="4">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="4">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="4">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="4">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="4">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="4">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="4">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="4">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="4">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="4">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="4">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="4">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="4">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="4">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="4">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="4">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="4">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="4">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="4">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="4">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="4">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="4">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="4">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="4">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="4">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="4">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="4">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="4">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="4">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="4">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="4">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="4">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="4">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="4">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="4">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="4">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="4">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="4">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="4">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="4">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="4">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="4">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="4">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="4">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="4">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="4">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="4">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="4">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="4">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="4">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="4">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="4">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="4">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="4">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="4">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="4">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="4">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="4">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="4">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="4">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="4">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="4">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="4">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:101" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:101" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:101" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:101" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:101" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:101" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA42"/>
   <sheetViews>
@@ -2822,14 +4842,14 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
@@ -3689,7 +5709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
@@ -4055,12 +6075,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4130,7 +6150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>

--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37340" yWindow="460" windowWidth="37340" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-38320" yWindow="1620" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能按钮" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="318">
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
@@ -2534,13 +2534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>药草</t>
-    <rPh sb="0" eb="1">
-      <t>yao'cao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每个点都有灵气浓度</t>
     <rPh sb="0" eb="1">
       <t>mei</t>
@@ -2984,6 +2977,29 @@
     </rPh>
     <rPh sb="52" eb="53">
       <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现地貌概率</t>
+    <rPh sb="0" eb="1">
+      <t>chu'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'mao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gai'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地貌类型概率</t>
+    <rPh sb="0" eb="1">
+      <t>di'mao'lei'xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gai'lv</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3044,10 +3060,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3482,10 +3498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3530,54 +3546,104 @@
         <v>56</v>
       </c>
     </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="O6">
+        <v>13</v>
+      </c>
+      <c r="P6">
+        <v>14</v>
+      </c>
+    </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>259</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>286</v>
+      <c r="P7" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="S7" t="s">
         <v>272</v>
@@ -3587,22 +3653,22 @@
       <c r="A8" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5">
         <v>1</v>
       </c>
       <c r="L8" s="4"/>
@@ -3614,7 +3680,11 @@
         <v>1</v>
       </c>
       <c r="P8" s="4">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="Q8">
+        <f>P8</f>
+        <v>20</v>
       </c>
       <c r="S8" t="s">
         <v>273</v>
@@ -3630,24 +3700,24 @@
       <c r="A9" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
         <v>1</v>
       </c>
       <c r="L9" s="4"/>
@@ -3659,7 +3729,11 @@
         <v>1</v>
       </c>
       <c r="P9" s="4">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>Q8&amp;","&amp;P9</f>
+        <v>20,30</v>
       </c>
       <c r="S9" t="s">
         <v>279</v>
@@ -3668,34 +3742,34 @@
         <v>281</v>
       </c>
       <c r="U9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>261</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5">
         <v>1</v>
       </c>
       <c r="L10" s="4">
@@ -3707,83 +3781,91 @@
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" ref="Q10:Q15" si="0">Q9&amp;","&amp;P10</f>
+        <v>20,30,50</v>
       </c>
       <c r="T10" t="s">
         <v>283</v>
       </c>
       <c r="U10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="V10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>262</v>
       </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
         <v>1</v>
       </c>
       <c r="M11" s="4"/>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>1</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="0"/>
+        <v>20,30,50,40</v>
       </c>
       <c r="T11" t="s">
         <v>285</v>
       </c>
       <c r="U11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5">
         <v>1</v>
       </c>
       <c r="L12" s="4"/>
@@ -3795,68 +3877,76 @@
         <v>1</v>
       </c>
       <c r="P12" s="4">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="0"/>
+        <v>20,30,50,40,40</v>
       </c>
       <c r="V12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
         <v>1</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4">
         <v>1</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>1</v>
       </c>
       <c r="O13" s="4">
         <v>1</v>
       </c>
       <c r="P13" s="4">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="0"/>
+        <v>20,30,50,40,40,30</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>266</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5">
         <v>1</v>
       </c>
       <c r="L14" s="4"/>
@@ -3868,130 +3958,632 @@
         <v>1</v>
       </c>
       <c r="P14" s="4">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="0"/>
+        <v>20,30,50,40,40,30,40</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>269</v>
       </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6">
-        <v>1</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
         <v>1</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <v>1</v>
       </c>
       <c r="O15" s="4">
         <v>1</v>
       </c>
       <c r="P15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="8:21" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="0"/>
+        <v>20,30,50,40,40,30,40,20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <f>IF(B8="",0,B8)</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:O17" si="1">IF(C8="",0,C8)</f>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P17" t="str">
+        <f>"{"&amp;B17&amp;","&amp;C17&amp;","&amp;D17&amp;","&amp;E17&amp;","&amp;F17&amp;","&amp;G17&amp;","&amp;H17&amp;","&amp;I17&amp;","&amp;J17&amp;","&amp;K17&amp;","&amp;L17&amp;","&amp;M17&amp;","&amp;N17&amp;","&amp;O17&amp;"},"</f>
+        <v>{0,1,0,0,1,0,1,0,0,1,0,0,1,1},</v>
+      </c>
       <c r="S17" t="s">
+        <v>306</v>
+      </c>
+      <c r="T17" t="s">
+        <v>300</v>
+      </c>
+      <c r="U17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <f t="shared" ref="B18:O18" si="2">IF(B9="",0,B9)</f>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" ref="P18:P24" si="3">"{"&amp;B18&amp;","&amp;C18&amp;","&amp;D18&amp;","&amp;E18&amp;","&amp;F18&amp;","&amp;G18&amp;","&amp;H18&amp;","&amp;I18&amp;","&amp;J18&amp;","&amp;K18&amp;","&amp;L18&amp;","&amp;M18&amp;","&amp;N18&amp;","&amp;O18&amp;"},"</f>
+        <v>{1,1,0,0,0,1,0,0,1,1,0,0,1,1},</v>
+      </c>
+      <c r="T18" t="s">
+        <v>301</v>
+      </c>
+      <c r="U18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <f t="shared" ref="B19:O19" si="4">IF(B10="",0,B10)</f>
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="3"/>
+        <v>{1,1,1,0,0,1,0,0,0,1,1,0,1,0},</v>
+      </c>
+      <c r="T19" t="s">
+        <v>302</v>
+      </c>
+      <c r="U19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <f t="shared" ref="B20:O20" si="5">IF(B11="",0,B11)</f>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="3"/>
+        <v>{1,1,1,0,0,1,0,0,1,1,1,0,1,0},</v>
+      </c>
+      <c r="S20" t="s">
         <v>307</v>
       </c>
-      <c r="T17" t="s">
-        <v>301</v>
-      </c>
-      <c r="U17" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="8:21" x14ac:dyDescent="0.15">
-      <c r="H18" t="s">
-        <v>287</v>
-      </c>
-      <c r="J18" t="s">
-        <v>288</v>
-      </c>
-      <c r="T18" t="s">
-        <v>302</v>
-      </c>
-      <c r="U18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="8:21" x14ac:dyDescent="0.15">
-      <c r="J19" t="s">
-        <v>289</v>
-      </c>
-      <c r="T19" t="s">
-        <v>303</v>
-      </c>
-      <c r="U19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="8:21" x14ac:dyDescent="0.15">
-      <c r="J20" t="s">
-        <v>290</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>308</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <f t="shared" ref="B21:O21" si="6">IF(B12="",0,B12)</f>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="3"/>
+        <v>{0,1,0,0,0,1,0,0,0,1,0,0,1,1},</v>
+      </c>
+      <c r="T21" t="s">
         <v>309</v>
       </c>
-      <c r="U20" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="21" spans="8:21" x14ac:dyDescent="0.15">
-      <c r="J21" t="s">
-        <v>26</v>
-      </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <f t="shared" ref="B22:O22" si="7">IF(B13="",0,B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="3"/>
+        <v>{0,0,1,0,0,1,0,0,1,1,0,1,1,1},</v>
+      </c>
+      <c r="T22" t="s">
         <v>310</v>
       </c>
-      <c r="U21" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="8:21" x14ac:dyDescent="0.15">
-      <c r="J22" t="s">
-        <v>293</v>
-      </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>311</v>
       </c>
-      <c r="U22" t="s">
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <f t="shared" ref="B23:O23" si="8">IF(B14="",0,B14)</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="3"/>
+        <v>{0,0,0,1,0,1,0,1,0,1,0,0,1,1},</v>
+      </c>
+      <c r="T23" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="23" spans="8:21" x14ac:dyDescent="0.15">
-      <c r="J23" t="s">
-        <v>292</v>
-      </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>313</v>
       </c>
-      <c r="U23" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="24" spans="8:21" x14ac:dyDescent="0.15">
-      <c r="J24" t="s">
-        <v>291</v>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <f t="shared" ref="B24:O24" si="9">IF(B15="",0,B15)</f>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="3"/>
+        <v>{1,0,0,0,0,0,0,0,1,1,0,0,1,1},</v>
       </c>
       <c r="T24" t="s">
         <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="S28" t="s">
+        <v>286</v>
+      </c>
+      <c r="U28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="U29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="U30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="U31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="U32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="21:21" x14ac:dyDescent="0.15">
+      <c r="U33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="21:21" x14ac:dyDescent="0.15">
+      <c r="U34" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4842,14 +5434,14 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" s="1">

--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/newworld/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/newworld/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38320" yWindow="1620" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能按钮" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="303">
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
@@ -2514,16 +2511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生成地貌</t>
-    <rPh sb="0" eb="1">
-      <t>sheng'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>di'mao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>得出npc列表</t>
     <rPh sb="0" eb="1">
       <t>de'chu</t>
@@ -2674,332 +2661,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大块地貌</t>
-    <rPh sb="0" eb="1">
-      <t>da'kuai</t>
+    <t>出现地貌概率</t>
+    <rPh sb="0" eb="1">
+      <t>chu'xian</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>di'mao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中型地貌</t>
-    <rPh sb="0" eb="1">
-      <t>zhong'xing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>di'mao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小型地貌</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'xing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>di'mao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50-500格子</t>
-    <rPh sb="6" eb="7">
-      <t>ge'zi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-10格子</t>
     <rPh sb="4" eb="5">
-      <t>ge'z</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-50格子</t>
+      <t>gai'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地貌类型概率</t>
+    <rPh sb="0" eb="1">
+      <t>di'mao'lei'xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gai'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图四周加边界</t>
+    <rPh sb="0" eb="1">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>si'zhou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bian'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界以3个格子大小为限</t>
+    <rPh sb="0" eb="1">
+      <t>bian'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ge</t>
+    </rPh>
     <rPh sb="5" eb="6">
       <t>ge'zi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地貌类型</t>
-    <rPh sb="0" eb="1">
-      <t>di'mao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lei'xing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成规则</t>
-    <rPh sb="0" eb="1">
-      <t>shegn'chegn</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gui'ze</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择初始点</t>
-    <rPh sb="0" eb="1">
-      <t>xuan'ze</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chu'shi'dian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定地貌格子数</t>
-    <rPh sb="0" eb="1">
-      <t>que'ding</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>di'mao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ge'zi'shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定行</t>
-    <rPh sb="0" eb="1">
-      <t>que'din</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hang'lie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行数介于1/4~3/4格子数随机，最小为1</t>
-    <rPh sb="0" eb="1">
-      <t>hang'shu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'yu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ge'zi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>shu</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>sui'ji</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>zui'xiao</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定列</t>
-    <rPh sb="0" eb="1">
-      <t>que'ding</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列数=格子数/行数，且向两侧随机1/5格子，最小为0</t>
-    <rPh sb="0" eb="1">
-      <t>lie</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>shu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ge'zi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shu</t>
-    </rPh>
     <rPh sb="7" eb="8">
-      <t>hang'shu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>qie</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>xiang</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>liang'ce</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>sui'ji</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ge'zi</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>zui'xiao</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据地貌类型，随机1-总格子数/20，有的地貌多，有的地貌少</t>
-    <rPh sb="0" eb="1">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>di'mao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>lei'xing</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>sui'ji</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zong</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ge'zi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>shu</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>you</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>d</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>di'mao</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>duo</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>you</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>d</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>di'mao</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>shao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始点从0,0开始，按概率触发地貌。存一个值，如果长时间不触发，值变大概率提高。如果右上方有地貌的，概率为0.</t>
-    <rPh sb="0" eb="1">
-      <t>chu'shi'dian</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>cong</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>kai'shi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>an'gai'lv</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>chu'fa</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>di'mao</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>cun</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>yi'ge</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ru'guo</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>chang'shi'jian</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>bu'chu'fa</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>chu'fa</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>bian'da</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>gai'lv</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ti'gao</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ru'guo</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>you'shang'fang</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>you</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>di'mao</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>d</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>gai'lv</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现地貌概率</t>
-    <rPh sb="0" eb="1">
-      <t>chu'xian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>di'mao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gai'lv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地貌类型概率</t>
-    <rPh sb="0" eb="1">
-      <t>di'mao'lei'xing</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gai'lv</t>
+      <t>da'xiao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei'xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3500,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3548,7 +3266,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3643,7 +3361,7 @@
         <v>282</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="S7" t="s">
         <v>272</v>
@@ -3742,10 +3460,10 @@
         <v>281</v>
       </c>
       <c r="U9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
@@ -3791,10 +3509,10 @@
         <v>283</v>
       </c>
       <c r="U10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
@@ -3839,13 +3557,13 @@
         <v>20,30,50,40</v>
       </c>
       <c r="T11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
@@ -3884,7 +3602,7 @@
         <v>20,30,50,40,40</v>
       </c>
       <c r="V12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
@@ -3925,6 +3643,12 @@
       <c r="Q13" t="str">
         <f t="shared" si="0"/>
         <v>20,30,50,40,40,30</v>
+      </c>
+      <c r="T13" t="s">
+        <v>301</v>
+      </c>
+      <c r="U13" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
@@ -4062,15 +3786,6 @@
         <f>"{"&amp;B17&amp;","&amp;C17&amp;","&amp;D17&amp;","&amp;E17&amp;","&amp;F17&amp;","&amp;G17&amp;","&amp;H17&amp;","&amp;I17&amp;","&amp;J17&amp;","&amp;K17&amp;","&amp;L17&amp;","&amp;M17&amp;","&amp;N17&amp;","&amp;O17&amp;"},"</f>
         <v>{0,1,0,0,1,0,1,0,0,1,0,0,1,1},</v>
       </c>
-      <c r="S17" t="s">
-        <v>306</v>
-      </c>
-      <c r="T17" t="s">
-        <v>300</v>
-      </c>
-      <c r="U17" t="s">
-        <v>303</v>
-      </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B18">
@@ -4133,12 +3848,6 @@
         <f t="shared" ref="P18:P24" si="3">"{"&amp;B18&amp;","&amp;C18&amp;","&amp;D18&amp;","&amp;E18&amp;","&amp;F18&amp;","&amp;G18&amp;","&amp;H18&amp;","&amp;I18&amp;","&amp;J18&amp;","&amp;K18&amp;","&amp;L18&amp;","&amp;M18&amp;","&amp;N18&amp;","&amp;O18&amp;"},"</f>
         <v>{1,1,0,0,0,1,0,0,1,1,0,0,1,1},</v>
       </c>
-      <c r="T18" t="s">
-        <v>301</v>
-      </c>
-      <c r="U18" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B19">
@@ -4201,12 +3910,6 @@
         <f t="shared" si="3"/>
         <v>{1,1,1,0,0,1,0,0,0,1,1,0,1,0},</v>
       </c>
-      <c r="T19" t="s">
-        <v>302</v>
-      </c>
-      <c r="U19" t="s">
-        <v>304</v>
-      </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B20">
@@ -4269,15 +3972,6 @@
         <f t="shared" si="3"/>
         <v>{1,1,1,0,0,1,0,0,1,1,1,0,1,0},</v>
       </c>
-      <c r="S20" t="s">
-        <v>307</v>
-      </c>
-      <c r="T20" t="s">
-        <v>308</v>
-      </c>
-      <c r="U20" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B21">
@@ -4340,12 +4034,6 @@
         <f t="shared" si="3"/>
         <v>{0,1,0,0,0,1,0,0,0,1,0,0,1,1},</v>
       </c>
-      <c r="T21" t="s">
-        <v>309</v>
-      </c>
-      <c r="U21" t="s">
-        <v>314</v>
-      </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B22">
@@ -4408,12 +4096,6 @@
         <f t="shared" si="3"/>
         <v>{0,0,1,0,0,1,0,0,1,1,0,1,1,1},</v>
       </c>
-      <c r="T22" t="s">
-        <v>310</v>
-      </c>
-      <c r="U22" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B23">
@@ -4476,12 +4158,6 @@
         <f t="shared" si="3"/>
         <v>{0,0,0,1,0,1,0,1,0,1,0,0,1,1},</v>
       </c>
-      <c r="T23" t="s">
-        <v>312</v>
-      </c>
-      <c r="U23" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B24">
@@ -4544,26 +4220,23 @@
         <f t="shared" si="3"/>
         <v>{1,0,0,0,0,0,0,0,1,1,0,0,1,1},</v>
       </c>
-      <c r="T24" t="s">
-        <v>284</v>
-      </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.15">
       <c r="S28" t="s">
+        <v>285</v>
+      </c>
+      <c r="U28" t="s">
         <v>286</v>
-      </c>
-      <c r="U28" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.15">
       <c r="U29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.15">
       <c r="U30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.15">
@@ -4573,17 +4246,17 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.15">
       <c r="U32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="21:21" x14ac:dyDescent="0.15">
       <c r="U33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="21:21" x14ac:dyDescent="0.15">
       <c r="U34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -2700,24 +2700,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>边界以3个格子大小为限</t>
+    <t>边界=5格子</t>
     <rPh sb="0" eb="1">
       <t>bian'jie</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi</t>
-    </rPh>
     <rPh sb="4" eb="5">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="5" eb="6">
       <t>ge'zi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>da'xiao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>wei'xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>

--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/newworld/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/newworld/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="28880" windowHeight="19880" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="功能按钮" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="319">
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
@@ -2706,6 +2709,118 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ge'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NpcTitles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随缘</t>
+    <rPh sb="0" eb="1">
+      <t>sui'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个油光锃亮的大和尚。</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'guang'zeng'liang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>da'he'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随性</t>
+    <rPh sb="0" eb="1">
+      <t>sui'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个衣着朴素的小和尚。</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'zhuo'pu'su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiao'he'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpInc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkInc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defInc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedInc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大力神僧|油面佛</t>
+    <rPh sb="0" eb="1">
+      <t>da'li'shen'seng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痴心和尚|飞天罗汉</t>
+    <rPh sb="0" eb="1">
+      <t>chi'xin'he'shang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fei'tian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>luo'han</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nicknames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急速</t>
+    <rPh sb="0" eb="1">
+      <t>ji'su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂躁</t>
+    <rPh sb="0" eb="1">
+      <t>kuang'zao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2751,7 +2866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2767,6 +2882,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3206,7 +3324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
@@ -5075,10 +5193,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5089,22 +5207,22 @@
     <col min="15" max="15" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1000</v>
       </c>
@@ -5124,7 +5242,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <f>A3+100</f>
         <v>1100</v>
@@ -5145,7 +5263,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A7" si="3">A4+100</f>
         <v>1200</v>
@@ -5166,7 +5284,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <f t="shared" si="3"/>
         <v>1300</v>
@@ -5187,7 +5305,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <f t="shared" si="3"/>
         <v>1400</v>
@@ -5207,18 +5325,18 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>75</v>
       </c>
       <c r="K9" t="s">
         <v>76</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -5262,23 +5380,24 @@
       <c r="Q10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="R10" s="6"/>
+      <c r="U10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>1000</v>
       </c>
@@ -5318,23 +5437,23 @@
       <c r="Q11" t="s">
         <v>73</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>80</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>1100</v>
       </c>
@@ -5374,23 +5493,23 @@
       <c r="Q12" t="s">
         <v>141</v>
       </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12" t="s">
         <v>129</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>130</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>131</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <f t="shared" ref="A13:A15" si="4">A12+100</f>
         <v>1200</v>
@@ -5432,7 +5551,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <f t="shared" si="4"/>
         <v>1300</v>
@@ -5468,7 +5587,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <f t="shared" si="4"/>
         <v>1400</v>
@@ -5486,11 +5605,11 @@
       <c r="H15" s="1"/>
       <c r="I15"/>
       <c r="K15" s="1"/>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
@@ -5510,20 +5629,20 @@
       <c r="H16" s="1"/>
       <c r="I16"/>
       <c r="K16" s="1"/>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>51</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>70</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>147</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>2100</v>
       </c>
@@ -5542,26 +5661,26 @@
       <c r="G17"/>
       <c r="H17" s="1"/>
       <c r="I17"/>
-      <c r="T17">
-        <v>1</v>
-      </c>
       <c r="U17">
         <v>1</v>
       </c>
-      <c r="V17" t="s">
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17" t="s">
         <v>155</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>149</v>
       </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="s">
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>2200</v>
       </c>
@@ -5580,14 +5699,14 @@
       <c r="G18"/>
       <c r="H18" s="1"/>
       <c r="I18"/>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18" t="s">
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>2300</v>
       </c>
@@ -5606,14 +5725,14 @@
       <c r="G19"/>
       <c r="H19" s="1"/>
       <c r="I19"/>
-      <c r="X19">
+      <c r="Y19">
         <v>2</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>2400</v>
       </c>
@@ -5633,22 +5752,28 @@
       <c r="H20" s="1"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="G21"/>
       <c r="H21" s="1"/>
       <c r="I21"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="G25" s="1" t="s">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="E25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="E26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>305</v>
+      </c>
       <c r="G26" s="1" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>88</v>
@@ -5680,30 +5805,33 @@
       <c r="Q26" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S26" t="s">
+      <c r="R26" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="T26" t="s">
         <v>51</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>112</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>113</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>114</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>115</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>116</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="G27" s="1" t="s">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="E27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -5736,10 +5864,17 @@
       <c r="Q27" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="G28" s="1">
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="E28" s="1">
         <v>10000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>306</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="H28" s="1">
         <v>3</v>
@@ -5771,11 +5906,11 @@
       <c r="Q28" s="1">
         <v>0</v>
       </c>
-      <c r="S28">
-        <v>1</v>
+      <c r="R28" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="T28">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="U28">
         <v>100</v>
@@ -5792,10 +5927,19 @@
       <c r="Y28">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="G29" s="1">
+      <c r="Z28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="E29" s="1">
         <v>10001</v>
+      </c>
+      <c r="F29" t="s">
+        <v>308</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="H29" s="1">
         <v>6</v>
@@ -5827,128 +5971,201 @@
       <c r="Q29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="7:27" x14ac:dyDescent="0.15">
+      <c r="R29" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="7:28" x14ac:dyDescent="0.15">
       <c r="G33" s="1" t="s">
         <v>97</v>
       </c>
       <c r="H33" t="s">
         <v>98</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="7:27" x14ac:dyDescent="0.15">
+    <row r="34" spans="7:28" x14ac:dyDescent="0.15">
       <c r="H34" t="s">
         <v>99</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>51</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>65</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>128</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>70</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>159</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>160</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="7:27" x14ac:dyDescent="0.15">
-      <c r="S35" s="1">
-        <v>1</v>
-      </c>
-      <c r="T35" s="1" t="s">
+    <row r="35" spans="7:28" x14ac:dyDescent="0.15">
+      <c r="T35" s="1">
+        <v>1</v>
+      </c>
+      <c r="U35" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>157</v>
       </c>
-      <c r="V35" s="1">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="s">
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="7:27" x14ac:dyDescent="0.15">
-      <c r="S36" s="1">
+    <row r="36" spans="7:28" x14ac:dyDescent="0.15">
+      <c r="T36" s="1">
         <v>2</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="U36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>158</v>
       </c>
-      <c r="V36" s="1">
-        <v>1</v>
-      </c>
-      <c r="W36">
+      <c r="W36" s="1">
+        <v>1</v>
+      </c>
+      <c r="X36">
         <v>10000</v>
       </c>
-      <c r="X36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>1</v>
-      </c>
-      <c r="AA36" t="s">
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="7:27" x14ac:dyDescent="0.15">
-      <c r="Z37">
+    <row r="37" spans="7:28" x14ac:dyDescent="0.15">
+      <c r="AA37">
         <v>2</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AB37" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="7:27" x14ac:dyDescent="0.15">
-      <c r="S40" t="s">
+    <row r="38" spans="7:28" x14ac:dyDescent="0.15">
+      <c r="G38" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="7:28" x14ac:dyDescent="0.15">
+      <c r="G39" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="7:28" x14ac:dyDescent="0.15">
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="I40" s="6">
+        <v>-2000</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <v>1000</v>
+      </c>
+      <c r="L40" s="6">
+        <v>1000</v>
+      </c>
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+      <c r="T40" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="7:27" x14ac:dyDescent="0.15">
-      <c r="S41" t="s">
+    <row r="41" spans="7:28" x14ac:dyDescent="0.15">
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>3000</v>
+      </c>
+      <c r="T41" t="s">
         <v>51</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>152</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="7:27" x14ac:dyDescent="0.15">
-      <c r="S42">
-        <v>1</v>
-      </c>
-      <c r="T42" t="s">
+    <row r="42" spans="7:28" x14ac:dyDescent="0.15">
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42" t="s">
         <v>153</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5966,7 +6183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>

--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="28880" windowHeight="19880" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-36880" yWindow="1740" windowWidth="35320" windowHeight="19880" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="功能按钮" sheetId="1" r:id="rId1"/>
-    <sheet name="map" sheetId="3" r:id="rId2"/>
-    <sheet name="地理位置表" sheetId="7" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
-    <sheet name="计划任务表" sheetId="5" r:id="rId5"/>
-    <sheet name="备注表" sheetId="6" r:id="rId6"/>
-    <sheet name="Items" sheetId="2" r:id="rId7"/>
+    <sheet name="存储信息表" sheetId="8" r:id="rId2"/>
+    <sheet name="map" sheetId="3" r:id="rId3"/>
+    <sheet name="地理位置表" sheetId="7" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId5"/>
+    <sheet name="计划任务表" sheetId="5" r:id="rId6"/>
+    <sheet name="备注表" sheetId="6" r:id="rId7"/>
+    <sheet name="Items" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="325">
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
@@ -2821,6 +2822,129 @@
     <t>狂躁</t>
     <rPh sb="0" eb="1">
       <t>kuang'zao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图开放数据</t>
+    <rPh sb="0" eb="1">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai'fang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前地图数据</t>
+    <rPh sb="0" eb="1">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC成长数据</t>
+    <rPh sb="3" eb="4">
+      <t>cheng'zhang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存活年限？？</t>
+    <rPh sb="0" eb="1">
+      <t>cun'huo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nian'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可根据悟性、缘分、灵根等计算出最大存活年限，并根据随机事件判断具体死亡时期。</t>
+    <rPh sb="0" eb="1">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wu'xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yuan'fen</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ling'gen</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji'suan'chu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zui'da</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>cun'huo</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>nian'xian</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>pan'duan</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ju'ti</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>si'wang</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>shi'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC属性增加出生时期、派别</t>
+    <rPh sb="3" eb="4">
+      <t>shu'xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chu'sheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi'qi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>pai'bie</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3322,6 +3446,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4371,7 +4529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CW101"/>
   <sheetViews>
@@ -5191,12 +5349,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5975,12 +6133,25 @@
         <v>315</v>
       </c>
     </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="M31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="M32" t="s">
+        <v>323</v>
+      </c>
+    </row>
     <row r="33" spans="7:28" x14ac:dyDescent="0.15">
       <c r="G33" s="1" t="s">
         <v>97</v>
       </c>
       <c r="H33" t="s">
         <v>98</v>
+      </c>
+      <c r="M33" t="s">
+        <v>324</v>
       </c>
       <c r="T33" t="s">
         <v>135</v>
@@ -6179,7 +6350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
@@ -6545,7 +6716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -6620,7 +6791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>

--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -1,31 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/newworld/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/newworld/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-36880" yWindow="1740" windowWidth="35320" windowHeight="19880" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="2800" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="功能按钮" sheetId="1" r:id="rId1"/>
-    <sheet name="存储信息表" sheetId="8" r:id="rId2"/>
-    <sheet name="map" sheetId="3" r:id="rId3"/>
-    <sheet name="地理位置表" sheetId="7" r:id="rId4"/>
-    <sheet name="工作表1" sheetId="4" r:id="rId5"/>
+    <sheet name="map" sheetId="3" r:id="rId2"/>
+    <sheet name="地理位置表" sheetId="7" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
+    <sheet name="技能" sheetId="8" r:id="rId5"/>
     <sheet name="计划任务表" sheetId="5" r:id="rId6"/>
     <sheet name="备注表" sheetId="6" r:id="rId7"/>
     <sheet name="Items" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="340">
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
@@ -1034,16 +1031,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能表</t>
-    <rPh sb="0" eb="1">
-      <t>ji'neng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>biao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>npc模板表</t>
     <rPh sb="3" eb="4">
       <t>mu'ban</t>
@@ -1058,20 +1045,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>心法</t>
-    <rPh sb="0" eb="1">
-      <t>xin'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <rPh sb="0" eb="1">
-      <t>fang'yu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10000|一个疯和尚不由分说朝你杀来。</t>
     <rPh sb="6" eb="7">
       <t>yi'ge</t>
@@ -1105,26 +1078,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>紫霞功</t>
-    <rPh sb="0" eb="1">
-      <t>zi'xia</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫霞指</t>
-    <rPh sb="0" eb="1">
-      <t>zi'xia</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>条件文本</t>
     <rPh sb="0" eb="1">
       <t>tiao'jian</t>
@@ -1255,18 +1208,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一指出，万人屠。</t>
-    <rPh sb="4" eb="5">
-      <t>wan'ren'tu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2826,126 +2768,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地图开放数据</t>
-    <rPh sb="0" eb="1">
-      <t>di'tu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kai'fang</t>
+    <t>灭神咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语出，神灭。</t>
+    <rPh sb="0" eb="1">
+      <t>yu'chu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shen'mie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指尖所向，万物虚无。</t>
+    <rPh sb="5" eb="6">
+      <t>wan'wu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xu'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吟唱时间</t>
+    <rPh sb="0" eb="1">
+      <t>yin'chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗类型</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'hao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>powerInc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害成长</t>
+    <rPh sb="0" eb="1">
+      <t>shang'hai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫霞拳</t>
+    <rPh sb="0" eb="1">
+      <t>zi'xia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫霞仙人指</t>
+    <rPh sb="0" eb="1">
+      <t>zi'xia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian'ren</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>shu'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前地图数据</t>
-    <rPh sb="0" eb="1">
-      <t>dang'qian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>di'tu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shu'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC成长数据</t>
-    <rPh sb="3" eb="4">
-      <t>cheng'zhang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shu'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存活年限？？</t>
-    <rPh sb="0" eb="1">
-      <t>cun'huo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>nian'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可根据悟性、缘分、灵根等计算出最大存活年限，并根据随机事件判断具体死亡时期。</t>
-    <rPh sb="0" eb="1">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>wu'xing</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>yuan'fen</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ling'gen</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>deng</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ji'suan'chu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>zui'da</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>cun'huo</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>nian'xian</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>bing</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>sui'ji</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>shi'jian</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>pan'duan</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ju'ti</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>si'wang</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>shi'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC属性增加出生时期、派别</t>
-    <rPh sb="3" eb="4">
-      <t>shu'xing</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zeng'jia</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>chu'sheng</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shi'qi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>pai'bie</t>
-    </rPh>
+      <t>zhi'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Mental,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF888A85"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>//心法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PhysicalAttack,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF888A85"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>//肉体攻击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MagicalAttack,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF888A85"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>//法力攻击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SoulAttack,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF888A85"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>//灵魂攻击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddShield,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddBuff,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0Strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Spirit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MaxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5MaxAge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffParamInc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2953,7 +2968,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2968,6 +2983,16 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF888A85"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2990,7 +3015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3013,6 +3038,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3303,7 +3332,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3327,7 +3356,7 @@
         <v>104</v>
       </c>
       <c r="I1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -3425,13 +3454,13 @@
         <v>104</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
@@ -3445,40 +3474,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
@@ -3530,7 +3525,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3580,60 +3575,60 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="L7" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="S7" t="s">
         <v>265</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="S7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5">
@@ -3669,18 +3664,18 @@
         <v>20</v>
       </c>
       <c r="S8" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="T8" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="U8" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -3718,21 +3713,21 @@
         <v>20,30</v>
       </c>
       <c r="S9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="T9" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="U9" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="V9" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -3770,18 +3765,18 @@
         <v>20,30,50</v>
       </c>
       <c r="T10" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="U10" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="V10" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -3821,18 +3816,18 @@
         <v>20,30,50,40</v>
       </c>
       <c r="T11" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="U11" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="V11" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5">
@@ -3866,12 +3861,12 @@
         <v>20,30,50,40,40</v>
       </c>
       <c r="V12" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3909,15 +3904,15 @@
         <v>20,30,50,40,40,30</v>
       </c>
       <c r="T13" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="U13" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -3955,7 +3950,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
@@ -4487,20 +4482,20 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.15">
       <c r="S28" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="U28" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.15">
       <c r="U29" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.15">
       <c r="U30" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.15">
@@ -4510,17 +4505,17 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.15">
       <c r="U32" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="21:21" x14ac:dyDescent="0.15">
       <c r="U33" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="21:21" x14ac:dyDescent="0.15">
       <c r="U34" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4529,7 +4524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CW101"/>
   <sheetViews>
@@ -5349,12 +5344,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB42"/>
+  <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView topLeftCell="N15" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33:AB37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5371,14 +5366,14 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
@@ -5649,7 +5644,7 @@
         <v>83</v>
       </c>
       <c r="Q12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -5697,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O13" s="1">
         <v>2</v>
@@ -5739,7 +5734,7 @@
         <v>3</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q14" t="s">
         <v>86</v>
@@ -5764,7 +5759,7 @@
       <c r="I15"/>
       <c r="K15" s="1"/>
       <c r="U15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
@@ -5794,10 +5789,10 @@
         <v>70</v>
       </c>
       <c r="W16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="X16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
@@ -5826,10 +5821,10 @@
         <v>1</v>
       </c>
       <c r="W17" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="X17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -5861,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="Z18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
@@ -5869,7 +5864,7 @@
         <v>2300</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -5895,7 +5890,7 @@
         <v>2400</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
@@ -5920,7 +5915,7 @@
         <v>87</v>
       </c>
       <c r="T25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
@@ -5928,7 +5923,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>128</v>
@@ -5943,7 +5938,7 @@
         <v>90</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>96</v>
@@ -5964,7 +5959,7 @@
         <v>107</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="T26" t="s">
         <v>51</v>
@@ -6029,10 +6024,10 @@
         <v>10000</v>
       </c>
       <c r="F28" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H28" s="1">
         <v>3</v>
@@ -6053,7 +6048,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O28" s="1">
         <v>2</v>
@@ -6065,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="T28">
         <v>1</v>
@@ -6094,10 +6089,10 @@
         <v>10001</v>
       </c>
       <c r="F29" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H29" s="1">
         <v>6</v>
@@ -6118,7 +6113,7 @@
         <v>2</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O29" s="1">
         <v>0</v>
@@ -6130,153 +6125,56 @@
         <v>0</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="M31" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="M32" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="33" spans="7:28" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="7:22" x14ac:dyDescent="0.15">
       <c r="G33" s="1" t="s">
         <v>97</v>
       </c>
       <c r="H33" t="s">
         <v>98</v>
       </c>
-      <c r="M33" t="s">
-        <v>324</v>
-      </c>
-      <c r="T33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="7:28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="7:22" x14ac:dyDescent="0.15">
       <c r="H34" t="s">
         <v>99</v>
       </c>
-      <c r="T34" t="s">
-        <v>51</v>
-      </c>
-      <c r="U34" t="s">
-        <v>65</v>
-      </c>
-      <c r="V34" t="s">
-        <v>128</v>
-      </c>
-      <c r="W34" t="s">
-        <v>70</v>
-      </c>
-      <c r="X34" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="7:28" x14ac:dyDescent="0.15">
-      <c r="T35" s="1">
-        <v>1</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="V35" t="s">
-        <v>157</v>
-      </c>
-      <c r="W35" s="1">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="7:28" x14ac:dyDescent="0.15">
-      <c r="T36" s="1">
-        <v>2</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="V36" t="s">
-        <v>158</v>
-      </c>
-      <c r="W36" s="1">
-        <v>1</v>
-      </c>
-      <c r="X36">
-        <v>10000</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>1</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="7:28" x14ac:dyDescent="0.15">
-      <c r="AA37">
-        <v>2</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="7:28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="7:22" x14ac:dyDescent="0.15">
       <c r="G38" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G39" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="39" spans="7:28" x14ac:dyDescent="0.15">
-      <c r="G39" s="1" t="s">
+      <c r="J39" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="L39" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="K39" s="6" t="s">
+      <c r="M39" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="40" spans="7:28" x14ac:dyDescent="0.15">
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>318</v>
       </c>
       <c r="I40" s="6">
         <v>-2000</v>
@@ -6294,15 +6192,15 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="7:28" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="7:22" x14ac:dyDescent="0.15">
       <c r="G41" s="1">
         <v>2</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="I41" s="6">
         <v>0</v>
@@ -6323,21 +6221,21 @@
         <v>51</v>
       </c>
       <c r="U41" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="V41" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="7:28" x14ac:dyDescent="0.15">
+    <row r="42" spans="7:22" x14ac:dyDescent="0.15">
       <c r="T42">
         <v>1</v>
       </c>
       <c r="U42" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="V42" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -6345,6 +6243,238 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K1" t="s">
+        <v>337</v>
+      </c>
+      <c r="L1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M1" t="s">
+        <v>339</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="R1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J2" t="s">
+        <v>322</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="R2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>20</v>
+      </c>
+      <c r="I3" s="7">
+        <v>500</v>
+      </c>
+      <c r="J3" s="7">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="R3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>30</v>
+      </c>
+      <c r="I4" s="7">
+        <v>800</v>
+      </c>
+      <c r="J4" s="7">
+        <v>80</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="R4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>400</v>
+      </c>
+      <c r="J5" s="7">
+        <v>50</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="R5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="O6" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="R6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6369,166 +6499,166 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
       </c>
       <c r="J2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="K2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="L2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="J3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F11" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H11" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F12" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H12" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F13" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G13" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -6536,178 +6666,178 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B48" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B53" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C53" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C54" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B56" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -6736,53 +6866,53 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/newworld/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/newworld/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="2640" yWindow="1600" windowWidth="32500" windowHeight="18700" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="功能按钮" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="350">
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
@@ -2879,34 +2882,6 @@
   </si>
   <si>
     <r>
-      <t>PhysicalAttack,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF888A85"/>
-        <rFont val="Menlo"/>
-      </rPr>
-      <t>//肉体攻击</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>MagicalAttack,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF888A85"/>
-        <rFont val="Menlo"/>
-      </rPr>
-      <t>//法力攻击</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>SoulAttack,</t>
     </r>
     <r>
@@ -2924,10 +2899,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AddBuff,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0Strength</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2944,10 +2915,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4MaxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5MaxAge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2961,6 +2928,201 @@
   </si>
   <si>
     <t>buffParamInc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加nextLevelId</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加newSKillId</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'jai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级后的技能</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心法类技能升级后，开放新技能</t>
+    <rPh sb="0" eb="1">
+      <t>xin'fa'lei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng'ji'hou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kai'fang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xin'ji'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//斩杀</t>
+    <rPh sb="2" eb="3">
+      <t>zhan'sha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力流失</t>
+    <rPh sb="0" eb="1">
+      <t>fa'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逼毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrengthAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MpAttack,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF888A85"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>//肉体攻击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuckMp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuckMaxMp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有释放限制，且会影响战斗外属性</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'fang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xian'zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ying'xiang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhan'dou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shu'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加元素亲和度，亲和力越高，施法速度加快，威力提高</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'jai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'su</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qin'he'du</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qin'he'li</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yue'gao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi'fa</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>su'du</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jia'kuai</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>wei'li</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ti'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加护盾种类，护盾和攻击有生克关系</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hu'dun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong'lei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hu'dun</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>he</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>sheng'ke'guan'xi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3038,10 +3200,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5366,14 +5528,14 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
@@ -6250,18 +6412,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="20" max="20" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -6293,22 +6456,22 @@
         <v>321</v>
       </c>
       <c r="K1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M1" t="s">
-        <v>339</v>
-      </c>
-      <c r="O1" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>325</v>
       </c>
       <c r="R1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="E2" t="s">
         <v>317</v>
       </c>
@@ -6318,14 +6481,14 @@
       <c r="J2" t="s">
         <v>322</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>326</v>
+      <c r="O2" t="s">
+        <v>343</v>
       </c>
       <c r="R2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -6365,14 +6528,14 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>327</v>
+      <c r="O3" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="R3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -6412,14 +6575,20 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>328</v>
+      <c r="O4" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="R4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+      <c r="T4" t="s">
+        <v>336</v>
+      </c>
+      <c r="U4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -6459,19 +6628,51 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="O5" s="9" t="s">
-        <v>329</v>
+      <c r="O5" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="R5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="O6" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="R6" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="T5" t="s">
+        <v>337</v>
+      </c>
+      <c r="U5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="O6" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="O7" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="P7" t="s">
+        <v>347</v>
+      </c>
+      <c r="T7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="O8" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="T8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="R9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="R10" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1600" windowWidth="32500" windowHeight="18700" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="功能按钮" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="355">
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
@@ -2828,20 +2828,6 @@
   </si>
   <si>
     <t>costValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>powerInc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害成长</t>
-    <rPh sb="0" eb="1">
-      <t>shang'hai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cheng'zhang</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3123,6 +3109,55 @@
     <rPh sb="13" eb="14">
       <t>sheng'ke'guan'xi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>powerFixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定伤害</t>
+    <rPh sb="0" eb="1">
+      <t>gu'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'hai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害比例</t>
+    <rPh sb="0" eb="1">
+      <t>shang'hai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff类型</t>
+    <rPh sb="4" eb="5">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <rPh sb="0" eb="1">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3177,7 +3212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3201,6 +3236,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5528,14 +5566,14 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
@@ -6412,19 +6450,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="20" max="20" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -6453,47 +6491,68 @@
         <v>153</v>
       </c>
       <c r="J1" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="K1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L1" t="s">
+        <v>332</v>
+      </c>
+      <c r="M1" t="s">
         <v>333</v>
       </c>
-      <c r="L1" t="s">
-        <v>334</v>
-      </c>
-      <c r="M1" t="s">
-        <v>335</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="R1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="N1" t="s">
+        <v>352</v>
+      </c>
+      <c r="O1" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="T1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="E2" t="s">
         <v>317</v>
       </c>
       <c r="G2" t="s">
         <v>319</v>
       </c>
+      <c r="I2" t="s">
+        <v>350</v>
+      </c>
       <c r="J2" t="s">
-        <v>322</v>
+        <v>349</v>
+      </c>
+      <c r="K2" t="s">
+        <v>351</v>
+      </c>
+      <c r="L2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>353</v>
       </c>
       <c r="O2" t="s">
-        <v>343</v>
-      </c>
-      <c r="R2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>341</v>
+      </c>
+      <c r="T2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>152</v>
@@ -6528,19 +6587,25 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="R3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="N3" s="9">
+        <v>5</v>
+      </c>
+      <c r="O3" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="T3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>315</v>
@@ -6575,20 +6640,26 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="R4" t="s">
-        <v>331</v>
+      <c r="N4" s="9">
+        <v>20</v>
+      </c>
+      <c r="O4" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="T4" t="s">
+        <v>329</v>
+      </c>
+      <c r="V4" t="s">
+        <v>334</v>
+      </c>
+      <c r="W4" t="s">
         <v>336</v>
       </c>
-      <c r="U4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -6628,51 +6699,57 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="R5" t="s">
-        <v>332</v>
+      <c r="N5" s="9">
+        <v>80</v>
+      </c>
+      <c r="O5" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="T5" t="s">
+        <v>330</v>
+      </c>
+      <c r="V5" t="s">
+        <v>335</v>
+      </c>
+      <c r="W5" t="s">
         <v>337</v>
       </c>
-      <c r="U5" t="s">
+    </row>
+    <row r="6" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="R7" t="s">
+        <v>345</v>
+      </c>
+      <c r="V7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="V8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="T9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="O6" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="O7" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="P7" t="s">
-        <v>347</v>
-      </c>
-      <c r="T7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="O8" s="8" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="T10" t="s">
         <v>340</v>
-      </c>
-      <c r="T8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="R9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="R10" t="s">
-        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能按钮" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="358">
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
@@ -3158,6 +3158,30 @@
   </si>
   <si>
     <t>Sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图交互元素</t>
+    <rPh sb="0" eb="1">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yuan'su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱子</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3677,8 +3701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4184,7 +4208,7 @@
         <v>20,30,50,40,40,30,40,20</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B17">
         <f>IF(B8="",0,B8)</f>
         <v>0</v>
@@ -4246,7 +4270,7 @@
         <v>{0,1,0,0,1,0,1,0,0,1,0,0,1,1},</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B18">
         <f t="shared" ref="B18:O18" si="2">IF(B9="",0,B9)</f>
         <v>1</v>
@@ -4308,7 +4332,7 @@
         <v>{1,1,0,0,0,1,0,0,1,1,0,0,1,1},</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B19">
         <f t="shared" ref="B19:O19" si="4">IF(B10="",0,B10)</f>
         <v>1</v>
@@ -4370,7 +4394,7 @@
         <v>{1,1,1,0,0,1,0,0,0,1,1,0,1,0},</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B20">
         <f t="shared" ref="B20:O20" si="5">IF(B11="",0,B11)</f>
         <v>1</v>
@@ -4432,7 +4456,7 @@
         <v>{1,1,1,0,0,1,0,0,1,1,1,0,1,0},</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B21">
         <f t="shared" ref="B21:O21" si="6">IF(B12="",0,B12)</f>
         <v>0</v>
@@ -4494,7 +4518,7 @@
         <v>{0,1,0,0,0,1,0,0,0,1,0,0,1,1},</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B22">
         <f t="shared" ref="B22:O22" si="7">IF(B13="",0,B13)</f>
         <v>0</v>
@@ -4556,7 +4580,7 @@
         <v>{0,0,1,0,0,1,0,0,1,1,0,1,1,1},</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B23">
         <f t="shared" ref="B23:O23" si="8">IF(B14="",0,B14)</f>
         <v>0</v>
@@ -4618,7 +4642,7 @@
         <v>{0,0,0,1,0,1,0,1,0,1,0,0,1,1},</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B24">
         <f t="shared" ref="B24:O24" si="9">IF(B15="",0,B15)</f>
         <v>1</v>
@@ -4680,7 +4704,15 @@
         <v>{1,0,0,0,0,0,0,0,1,1,0,0,1,1},</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>356</v>
+      </c>
       <c r="S28" t="s">
         <v>278</v>
       </c>
@@ -4688,22 +4720,25 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>357</v>
+      </c>
       <c r="U29" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="U30" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="U31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="U32" t="s">
         <v>284</v>
       </c>
@@ -6452,7 +6487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:O5"/>
     </sheetView>
   </sheetViews>

--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="功能按钮" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="360">
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
@@ -1158,38 +1158,6 @@
   </si>
   <si>
     <t>questions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敢问大师法号？|大师给我算一卦。</t>
-    <rPh sb="8" eb="9">
-      <t>da'shi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>gei</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>wo</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>suan'yi'gua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贫僧法号星云。|天机不可泄露。</t>
-    <rPh sb="0" eb="1">
-      <t>pin'seng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fa'hao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xing'yun</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>tian'ji'bu'ke'xi</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3182,6 +3150,76 @@
   </si>
   <si>
     <t>Npc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施主此来有何贵干？|敢问大师法号？|大师给我算一卦。|大师，老子想揍你！</t>
+    <rPh sb="0" eb="1">
+      <t>shi'zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'he'gui'gan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>da'shi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>suan'yi'gua</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>da'shi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>lao'zi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>xiang'zou'ni</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贫僧法号星云。|天机不可泄露。|拳脚无眼，施主小心了！</t>
+    <rPh sb="0" eb="1">
+      <t>pin'seng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa'hao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing'yun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tian'ji'bu'ke'xi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>quan'jiao'wu'yan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shi'zhu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xiao'xin</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3556,7 +3594,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3580,7 +3618,7 @@
         <v>104</v>
       </c>
       <c r="I1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -3678,13 +3716,13 @@
         <v>104</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
@@ -3701,7 +3739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -3749,7 +3787,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3799,60 +3837,60 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="I7" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="P7" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="S7" t="s">
         <v>263</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="S7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5">
@@ -3888,18 +3926,18 @@
         <v>20</v>
       </c>
       <c r="S8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="T8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="U8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -3937,21 +3975,21 @@
         <v>20,30</v>
       </c>
       <c r="S9" t="s">
+        <v>270</v>
+      </c>
+      <c r="T9" t="s">
         <v>272</v>
       </c>
-      <c r="T9" t="s">
-        <v>274</v>
-      </c>
       <c r="U9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="V9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -3989,18 +4027,18 @@
         <v>20,30,50</v>
       </c>
       <c r="T10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="U10" t="s">
+        <v>285</v>
+      </c>
+      <c r="V10" t="s">
         <v>287</v>
-      </c>
-      <c r="V10" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -4040,18 +4078,18 @@
         <v>20,30,50,40</v>
       </c>
       <c r="T11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="U11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5">
@@ -4085,12 +4123,12 @@
         <v>20,30,50,40,40</v>
       </c>
       <c r="V12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -4128,15 +4166,15 @@
         <v>20,30,50,40,40,30</v>
       </c>
       <c r="T13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="U13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4174,7 +4212,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
@@ -4706,31 +4744,31 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="S28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="U28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U29" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="U30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
@@ -4740,17 +4778,17 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="U32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="21:21" x14ac:dyDescent="0.15">
       <c r="U33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="21:21" x14ac:dyDescent="0.15">
       <c r="U34" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5583,8 +5621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView topLeftCell="N15" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33:AB37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6027,7 +6065,7 @@
         <v>142</v>
       </c>
       <c r="X16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
@@ -6056,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="W17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="X17" t="s">
         <v>144</v>
@@ -6158,7 +6196,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>128</v>
@@ -6173,7 +6211,7 @@
         <v>90</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>96</v>
@@ -6194,7 +6232,7 @@
         <v>107</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="T26" t="s">
         <v>51</v>
@@ -6259,10 +6297,10 @@
         <v>10000</v>
       </c>
       <c r="F28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H28" s="1">
         <v>3</v>
@@ -6295,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="T28">
         <v>1</v>
@@ -6324,10 +6362,10 @@
         <v>10001</v>
       </c>
       <c r="F29" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H29" s="1">
         <v>6</v>
@@ -6360,10 +6398,10 @@
         <v>0</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="33" spans="7:22" x14ac:dyDescent="0.15">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G33" s="1" t="s">
         <v>97</v>
       </c>
@@ -6371,45 +6409,45 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="7:22" x14ac:dyDescent="0.15">
+    <row r="34" spans="7:23" x14ac:dyDescent="0.15">
       <c r="H34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="7:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G38" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="7:23" x14ac:dyDescent="0.15">
+      <c r="G39" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="39" spans="7:22" x14ac:dyDescent="0.15">
-      <c r="G39" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>298</v>
-      </c>
       <c r="I39" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="L39" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="J39" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="K39" s="6" t="s">
+      <c r="M39" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="L39" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="40" spans="7:22" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G40" s="1">
         <v>1</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I40" s="6">
         <v>-2000</v>
@@ -6430,12 +6468,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="7:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G41" s="1">
         <v>2</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I41" s="6">
         <v>0</v>
@@ -6461,16 +6499,22 @@
       <c r="V41" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="42" spans="7:22" x14ac:dyDescent="0.15">
+      <c r="W41" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42" spans="7:23" x14ac:dyDescent="0.15">
       <c r="T42">
         <v>1</v>
       </c>
       <c r="U42" t="s">
-        <v>148</v>
+        <v>357</v>
       </c>
       <c r="V42" t="s">
-        <v>149</v>
+        <v>358</v>
+      </c>
+      <c r="W42" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -6511,75 +6555,75 @@
         <v>70</v>
       </c>
       <c r="E1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1" t="s">
         <v>314</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>316</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>318</v>
       </c>
-      <c r="H1" t="s">
-        <v>320</v>
-      </c>
       <c r="I1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" t="s">
         <v>331</v>
       </c>
-      <c r="L1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M1" t="s">
-        <v>333</v>
-      </c>
       <c r="N1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O1" t="s">
         <v>352</v>
       </c>
-      <c r="O1" t="s">
-        <v>354</v>
-      </c>
       <c r="Q1" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="T1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="E2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" t="s">
         <v>317</v>
       </c>
-      <c r="G2" t="s">
-        <v>319</v>
-      </c>
       <c r="I2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J2" t="s">
+        <v>347</v>
+      </c>
+      <c r="K2" t="s">
         <v>349</v>
-      </c>
-      <c r="K2" t="s">
-        <v>351</v>
       </c>
       <c r="L2" t="s">
         <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O2" t="s">
         <v>71</v>
       </c>
       <c r="Q2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="T2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="16" x14ac:dyDescent="0.2">
@@ -6587,10 +6631,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -6629,10 +6673,10 @@
         <v>1</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="T3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="16" x14ac:dyDescent="0.2">
@@ -6640,10 +6684,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -6682,16 +6726,16 @@
         <v>2</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="T4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V4" t="s">
+        <v>332</v>
+      </c>
+      <c r="W4" t="s">
         <v>334</v>
-      </c>
-      <c r="W4" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="16" x14ac:dyDescent="0.2">
@@ -6699,10 +6743,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
@@ -6741,50 +6785,50 @@
         <v>3</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="T5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="V5" t="s">
+        <v>333</v>
+      </c>
+      <c r="W5" t="s">
         <v>335</v>
-      </c>
-      <c r="W5" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="Q6" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="Q7" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="R7" t="s">
+        <v>343</v>
+      </c>
+      <c r="V7" t="s">
         <v>344</v>
-      </c>
-      <c r="R7" t="s">
-        <v>345</v>
-      </c>
-      <c r="V7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="Q8" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="V8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="T9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="T10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -6812,166 +6856,166 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
       </c>
       <c r="J2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2" t="s">
         <v>226</v>
-      </c>
-      <c r="K2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" t="s">
         <v>219</v>
-      </c>
-      <c r="H11" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -6979,178 +7023,178 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" t="s">
         <v>223</v>
       </c>
-      <c r="B53" t="s">
-        <v>225</v>
-      </c>
       <c r="C53" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -7179,53 +7223,53 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能按钮" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="363">
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
@@ -3220,6 +3220,57 @@
   </si>
   <si>
     <t>0|0|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树木可以砍伐</t>
+    <rPh sb="0" eb="1">
+      <t>shu'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kan'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石块可以挖掘</t>
+    <rPh sb="0" eb="1">
+      <t>shi'kuai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wa'jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝大部分内容都可以挖掘获取物品</t>
+    <rPh sb="0" eb="1">
+      <t>jue'da'bu'fen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wa'jue</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wu'pin</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3739,8 +3790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4751,6 +4802,9 @@
       <c r="A28" t="s">
         <v>354</v>
       </c>
+      <c r="F28" t="s">
+        <v>360</v>
+      </c>
       <c r="S28" t="s">
         <v>276</v>
       </c>
@@ -4762,11 +4816,17 @@
       <c r="A29" t="s">
         <v>355</v>
       </c>
+      <c r="F29" t="s">
+        <v>361</v>
+      </c>
       <c r="U29" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="F30" t="s">
+        <v>362</v>
+      </c>
       <c r="U30" t="s">
         <v>279</v>
       </c>
@@ -5621,7 +5681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>

--- a/Design/new world.xlsx
+++ b/Design/new world.xlsx
@@ -9,17 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-37220" yWindow="1620" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能按钮" sheetId="1" r:id="rId1"/>
     <sheet name="map" sheetId="3" r:id="rId2"/>
-    <sheet name="地理位置表" sheetId="7" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
-    <sheet name="技能" sheetId="8" r:id="rId5"/>
-    <sheet name="计划任务表" sheetId="5" r:id="rId6"/>
-    <sheet name="备注表" sheetId="6" r:id="rId7"/>
-    <sheet name="Items" sheetId="2" r:id="rId8"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId3"/>
+    <sheet name="技能" sheetId="8" r:id="rId4"/>
+    <sheet name="计划任务表" sheetId="5" r:id="rId5"/>
+    <sheet name="备注表" sheetId="6" r:id="rId6"/>
+    <sheet name="Items" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -3790,7 +3789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -4859,830 +4858,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CW101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="101" width="4.83203125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.15">
-      <c r="B1" s="4">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4">
-        <v>9</v>
-      </c>
-      <c r="L1" s="4">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4">
-        <v>11</v>
-      </c>
-      <c r="N1" s="4">
-        <v>12</v>
-      </c>
-      <c r="O1" s="4">
-        <v>13</v>
-      </c>
-      <c r="P1" s="4">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="4">
-        <v>15</v>
-      </c>
-      <c r="R1" s="4">
-        <v>16</v>
-      </c>
-      <c r="S1" s="4">
-        <v>17</v>
-      </c>
-      <c r="T1" s="4">
-        <v>18</v>
-      </c>
-      <c r="U1" s="4">
-        <v>19</v>
-      </c>
-      <c r="V1" s="4">
-        <v>20</v>
-      </c>
-      <c r="W1" s="4">
-        <v>21</v>
-      </c>
-      <c r="X1" s="4">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="4">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="4">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="4">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="4">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="4">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="4">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="4">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="4">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="4">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="4">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="4">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="4">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="4">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="4">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="4">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="4">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="4">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="4">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="4">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="4">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="4">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="4">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="4">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="4">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="4">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="4">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="4">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="4">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="4">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="4">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="4">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="4">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="4">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="4">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="4">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="4">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="4">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="4">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="4">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="4">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="4">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="4">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="4">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="4">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="4">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="4">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="4">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="4">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="4">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="4">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="4">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="4">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="4">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="4">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="4">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="4">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="4">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="4">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="4">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="4">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="4">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="4">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="4">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="4">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="4">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="4">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="4">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="4">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="4">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="4">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="4">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="4">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="4">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="4">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="4">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="4">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A85">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A87">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A89">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A91">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A93">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A95">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A96">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A101">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6587,7 +5766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W10"/>
   <sheetViews>
@@ -6897,12 +6076,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7263,7 +6442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -7338,7 +6517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
